--- a/documentation/Book1.xlsx
+++ b/documentation/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kono/projects/python/ir_project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DE5707F-F890-2C4E-82B4-034C02A7FFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A302F006-724C-7C43-8AF1-61F2E4C11A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{6417DBC9-3410-074B-A8FC-9478DEF86CCE}"/>
   </bookViews>
@@ -93,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -113,6 +113,141 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -121,12 +256,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -447,7 +603,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,69 +617,70 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>41121</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>351168</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>41021</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>235258</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>31166</v>
       </c>
-      <c r="C4" s="1">
-        <v>45989</v>
+      <c r="C4" s="6">
+        <v>244468</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>26902</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45989</v>
+        <v>29852</v>
+      </c>
+      <c r="C5" s="6">
+        <v>244403</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>26544</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43482</v>
+      <c r="B6" s="8">
+        <v>29836</v>
+      </c>
+      <c r="C6" s="9">
+        <v>227295</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>